--- a/Experimento_TOF_Texas.xlsx
+++ b/Experimento_TOF_Texas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tof\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5117FC-C387-4050-848F-0F231AC9DCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831B2471-7645-447B-875B-8845147A2A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C34D09C6-B6F3-4547-9FCF-70EE99A6F9E9}"/>
   </bookViews>
@@ -344,10 +344,10 @@
     <t>Vis-Disco Refletivo</t>
   </si>
   <si>
-    <t>dist_mm</t>
-  </si>
-  <si>
     <t>angulo</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,13 +803,13 @@
         <v>37</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>92</v>
